--- a/storeData711.xlsx
+++ b/storeData711.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>county</t>
   </si>
@@ -49,7 +49,7 @@
     <t>千禧血壓站</t>
   </si>
   <si>
-    <t>外送咖啡服務</t>
+    <t>冰塊杯販售</t>
   </si>
   <si>
     <t>霜淇淋</t>
@@ -131,6 +131,36 @@
   </si>
   <si>
     <t>甜點專櫃</t>
+  </si>
+  <si>
+    <t>八斗子</t>
+  </si>
+  <si>
+    <t>基隆市中正區北寧路327號1樓</t>
+  </si>
+  <si>
+    <t>北寧</t>
+  </si>
+  <si>
+    <t>基隆市中正區北寧路382號382-5號</t>
+  </si>
+  <si>
+    <t>正濱</t>
+  </si>
+  <si>
+    <t>基隆市中正區豐稔街27號29號</t>
+  </si>
+  <si>
+    <t>旭東</t>
+  </si>
+  <si>
+    <t>基隆市中正區中正路54號</t>
+  </si>
+  <si>
+    <t>和平島</t>
+  </si>
+  <si>
+    <t>基隆市中正區和一路125號127號</t>
   </si>
 </sst>
 </file>
@@ -462,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,6 +617,214 @@
         <v>38</v>
       </c>
     </row>
+    <row r="2" spans="1:39">
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storeData711.xlsx
+++ b/storeData711.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>county</t>
   </si>
@@ -161,6 +161,78 @@
   </si>
   <si>
     <t>基隆市中正區和一路125號127號</t>
+  </si>
+  <si>
+    <t>和豐</t>
+  </si>
+  <si>
+    <t>基隆市中正區新豐街203號1樓</t>
+  </si>
+  <si>
+    <t>哨船頭</t>
+  </si>
+  <si>
+    <t>基隆市中正區義一路43號1樓</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
+    <t>基隆市中正區中正路609號1樓</t>
+  </si>
+  <si>
+    <t>財豐</t>
+  </si>
+  <si>
+    <t>基隆市中正區新豐街389號1樓</t>
+  </si>
+  <si>
+    <t>基義</t>
+  </si>
+  <si>
+    <t>基隆市中正區義二路181號185號1樓</t>
+  </si>
+  <si>
+    <t>港都</t>
+  </si>
+  <si>
+    <t>基隆市中正區義二路8號1樓</t>
+  </si>
+  <si>
+    <t>翔濱</t>
+  </si>
+  <si>
+    <t>基隆市中正區建國里祥豐街339號</t>
+  </si>
+  <si>
+    <t>新財發</t>
+  </si>
+  <si>
+    <t>基隆市中正區新豐街303巷11弄1號3號1樓</t>
+  </si>
+  <si>
+    <t>漁港</t>
+  </si>
+  <si>
+    <t>基隆市中正區中正路672號</t>
+  </si>
+  <si>
+    <t>龍騰</t>
+  </si>
+  <si>
+    <t>基隆市中正區義一路22號24號</t>
+  </si>
+  <si>
+    <t>豐勝</t>
+  </si>
+  <si>
+    <t>基隆市中正區中正路322號</t>
+  </si>
+  <si>
+    <t>觀山海</t>
+  </si>
+  <si>
+    <t>基隆市中正區砂子里觀海街49號51號1樓</t>
   </si>
 </sst>
 </file>
@@ -492,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -825,6 +897,474 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:39">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:37">
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:37">
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storeData711.xlsx
+++ b/storeData711.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="219">
   <si>
     <t>county</t>
   </si>
   <si>
-    <t>district</t>
+    <t>town</t>
   </si>
   <si>
     <t>name</t>
@@ -133,6 +133,12 @@
     <t>甜點專櫃</t>
   </si>
   <si>
+    <t>keelung_county_filler</t>
+  </si>
+  <si>
+    <t>中正區</t>
+  </si>
+  <si>
     <t>八斗子</t>
   </si>
   <si>
@@ -233,6 +239,438 @@
   </si>
   <si>
     <t>基隆市中正區砂子里觀海街49號51號1樓</t>
+  </si>
+  <si>
+    <t>七堵區</t>
+  </si>
+  <si>
+    <t>七堵</t>
+  </si>
+  <si>
+    <t>基隆市七堵區明德一路174號</t>
+  </si>
+  <si>
+    <t>七堵站</t>
+  </si>
+  <si>
+    <t>基隆市七堵區東新街2號1樓</t>
+  </si>
+  <si>
+    <t>六工</t>
+  </si>
+  <si>
+    <t>基隆市七堵區工建路1之22號1之23號1樓</t>
+  </si>
+  <si>
+    <t>巧龍</t>
+  </si>
+  <si>
+    <t>基隆市七堵區百三街61號</t>
+  </si>
+  <si>
+    <t>正光</t>
+  </si>
+  <si>
+    <t>基隆市七堵區自治街9號11號</t>
+  </si>
+  <si>
+    <t>永富</t>
+  </si>
+  <si>
+    <t>基隆市七堵區永富路99號101號103號1樓</t>
+  </si>
+  <si>
+    <t>華新一</t>
+  </si>
+  <si>
+    <t>基隆市七堵區華新一路22號26號1樓</t>
+  </si>
+  <si>
+    <t>新五福</t>
+  </si>
+  <si>
+    <t>基隆市七堵區福五街80號82號1樓</t>
+  </si>
+  <si>
+    <t>福二</t>
+  </si>
+  <si>
+    <t>基隆市七堵區福二街157號1樓</t>
+  </si>
+  <si>
+    <t>福聚</t>
+  </si>
+  <si>
+    <t>基隆市七堵區實踐路286號福二街229號1樓</t>
+  </si>
+  <si>
+    <t>篤勝</t>
+  </si>
+  <si>
+    <t>基隆市七堵區大德路103號</t>
+  </si>
+  <si>
+    <t>篤鑫</t>
+  </si>
+  <si>
+    <t>基隆市七堵區堵南街22-1號1樓</t>
+  </si>
+  <si>
+    <t>暖暖區</t>
+  </si>
+  <si>
+    <t>晨曦</t>
+  </si>
+  <si>
+    <t>基隆市暖暖區東勢街6之52號6之53號1樓</t>
+  </si>
+  <si>
+    <t>新暖東</t>
+  </si>
+  <si>
+    <t>基隆市暖暖區暖暖街177號1樓</t>
+  </si>
+  <si>
+    <t>暖碇</t>
+  </si>
+  <si>
+    <t>基隆市暖暖區碇內街9號11號</t>
+  </si>
+  <si>
+    <t>暖鑫</t>
+  </si>
+  <si>
+    <t>基隆市暖暖區暖暖街554號</t>
+  </si>
+  <si>
+    <t>源遠</t>
+  </si>
+  <si>
+    <t>基隆市暖暖區源遠路294號296號298號1樓</t>
+  </si>
+  <si>
+    <t>碇內</t>
+  </si>
+  <si>
+    <t>基隆市暖暖區源遠路158號160號</t>
+  </si>
+  <si>
+    <t>安樂區</t>
+  </si>
+  <si>
+    <t>大武崙</t>
+  </si>
+  <si>
+    <t>基隆市安樂區基金一路381號383號1樓</t>
+  </si>
+  <si>
+    <t>大武嶺</t>
+  </si>
+  <si>
+    <t>基隆市安樂區大武嶺里基金一路135巷21弄2-1號</t>
+  </si>
+  <si>
+    <t>安一</t>
+  </si>
+  <si>
+    <t>基隆市安樂區安一路172及174號</t>
+  </si>
+  <si>
+    <t>武訓</t>
+  </si>
+  <si>
+    <t>基隆市安樂區武訓街102號1樓</t>
+  </si>
+  <si>
+    <t>武晴</t>
+  </si>
+  <si>
+    <t>基隆市安樂區基金一路214之17號</t>
+  </si>
+  <si>
+    <t>基金</t>
+  </si>
+  <si>
+    <t>基隆市安樂區麥金路197號1樓</t>
+  </si>
+  <si>
+    <t>麥金</t>
+  </si>
+  <si>
+    <t>基隆市安樂區基金三路80號80-1號</t>
+  </si>
+  <si>
+    <t>新壯觀</t>
+  </si>
+  <si>
+    <t>基隆市安樂區麥金路64號66號1樓</t>
+  </si>
+  <si>
+    <t>新和慶</t>
+  </si>
+  <si>
+    <t>基隆市安樂區中和路166之5號166之6號1樓</t>
+  </si>
+  <si>
+    <t>新武嶺</t>
+  </si>
+  <si>
+    <t>基隆市安樂區基金一路168之26號</t>
+  </si>
+  <si>
+    <t>新金樂</t>
+  </si>
+  <si>
+    <t>基隆市安樂區麥金路427號</t>
+  </si>
+  <si>
+    <t>新長基</t>
+  </si>
+  <si>
+    <t>基隆市安樂區安樂路二段161號</t>
+  </si>
+  <si>
+    <t>瑞金</t>
+  </si>
+  <si>
+    <t>基隆市安樂區基金三路75-1號</t>
+  </si>
+  <si>
+    <t>樂三</t>
+  </si>
+  <si>
+    <t>基隆市安樂區樂利三街257號259號1樓</t>
+  </si>
+  <si>
+    <t>樂添</t>
+  </si>
+  <si>
+    <t>基隆市安樂區樂利二街62巷291號2樓292號293號1樓</t>
+  </si>
+  <si>
+    <t>中山區</t>
+  </si>
+  <si>
+    <t>富華</t>
+  </si>
+  <si>
+    <t>基隆市中山區中華路9號</t>
+  </si>
+  <si>
+    <t>港富</t>
+  </si>
+  <si>
+    <t>基隆市中山區中華路93號</t>
+  </si>
+  <si>
+    <t>新大慶</t>
+  </si>
+  <si>
+    <t>基隆市中山區中和路168巷7弄13號15號1樓</t>
+  </si>
+  <si>
+    <t>聖心</t>
+  </si>
+  <si>
+    <t>基隆市中山區西定路38號40號</t>
+  </si>
+  <si>
+    <t>德欣</t>
+  </si>
+  <si>
+    <t>基隆市中山區復興路328號之6號之7號1樓</t>
+  </si>
+  <si>
+    <t>德復</t>
+  </si>
+  <si>
+    <t>基隆市中山區復興路193號195號197號1樓</t>
+  </si>
+  <si>
+    <t>仁愛區</t>
+  </si>
+  <si>
+    <t>仁五</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區仁五路63號1樓</t>
+  </si>
+  <si>
+    <t>孝三</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區孝三路89號91號1樓</t>
+  </si>
+  <si>
+    <t>忠三</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區忠三路52之1號54號1樓</t>
+  </si>
+  <si>
+    <t>崁頂</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區仁四路60號62號1樓</t>
+  </si>
+  <si>
+    <t>基隆</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區仁二路236號</t>
+  </si>
+  <si>
+    <t>基隆南站</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區港西街5號1樓</t>
+  </si>
+  <si>
+    <t>港隆</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區孝四路23號1樓</t>
+  </si>
+  <si>
+    <t>愛六</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區仁一路281號1樓</t>
+  </si>
+  <si>
+    <t>愛鑫</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區愛二路65號</t>
+  </si>
+  <si>
+    <t>新仁二</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區仁二路11號13號1樓</t>
+  </si>
+  <si>
+    <t>新華成</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區成功一路115號117號</t>
+  </si>
+  <si>
+    <t>新福成</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區仁二路84號86號1樓</t>
+  </si>
+  <si>
+    <t>新廟口</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區仁二路228號1樓</t>
+  </si>
+  <si>
+    <t>極上</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區仁三路66號愛二路54巷10號1樓</t>
+  </si>
+  <si>
+    <t>極品</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區仁三路19號21號1,2樓</t>
+  </si>
+  <si>
+    <t>極緻</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區仁二路211號1樓</t>
+  </si>
+  <si>
+    <t>慶龍</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區南榮路187號1樓</t>
+  </si>
+  <si>
+    <t>信義區</t>
+  </si>
+  <si>
+    <t>坤海</t>
+  </si>
+  <si>
+    <t>基隆市信義區東明路69號</t>
+  </si>
+  <si>
+    <t>東明</t>
+  </si>
+  <si>
+    <t>基隆市信義區東明路181號183號1樓</t>
+  </si>
+  <si>
+    <t>杰昕</t>
+  </si>
+  <si>
+    <t>基隆市信義區信二路243號245號</t>
+  </si>
+  <si>
+    <t>信二</t>
+  </si>
+  <si>
+    <t>基隆市信義區信二路167號</t>
+  </si>
+  <si>
+    <t>美的</t>
+  </si>
+  <si>
+    <t>基隆市信義區教孝街28號1樓</t>
+  </si>
+  <si>
+    <t>基醫</t>
+  </si>
+  <si>
+    <t>基隆市信義區信二路268號1樓</t>
+  </si>
+  <si>
+    <t>崇信</t>
+  </si>
+  <si>
+    <t>基隆市信義區東信路212-4,214號1F</t>
+  </si>
+  <si>
+    <t>深美</t>
+  </si>
+  <si>
+    <t>基隆市信義區深美街196號</t>
+  </si>
+  <si>
+    <t>深瑞</t>
+  </si>
+  <si>
+    <t>基隆市信義區深澳坑路129號1樓</t>
+  </si>
+  <si>
+    <t>深澳坑</t>
+  </si>
+  <si>
+    <t>基隆市信義區深澳坑路2-6號2-7號</t>
+  </si>
+  <si>
+    <t>新福樂</t>
+  </si>
+  <si>
+    <t>基隆市信義區深溪路43號45號1樓</t>
+  </si>
+  <si>
+    <t>滿福</t>
+  </si>
+  <si>
+    <t>基隆市信義區深澳坑路166之30號1樓</t>
+  </si>
+  <si>
+    <t>德信</t>
+  </si>
+  <si>
+    <t>基隆市信義區東信路50號52號</t>
   </si>
 </sst>
 </file>
@@ -564,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,58 +1128,70 @@
       </c>
     </row>
     <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -778,11 +1228,17 @@
       </c>
     </row>
     <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -819,11 +1275,17 @@
       </c>
     </row>
     <row r="5" spans="1:39">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -857,11 +1319,17 @@
       </c>
     </row>
     <row r="6" spans="1:39">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -898,11 +1366,17 @@
       </c>
     </row>
     <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -933,11 +1407,17 @@
       </c>
     </row>
     <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -983,11 +1463,17 @@
       </c>
     </row>
     <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1048,11 +1534,17 @@
       </c>
     </row>
     <row r="10" spans="1:39">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1083,11 +1575,17 @@
       </c>
     </row>
     <row r="11" spans="1:39">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1121,11 +1619,17 @@
       </c>
     </row>
     <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1153,11 +1657,17 @@
       </c>
     </row>
     <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1179,11 +1689,17 @@
       </c>
     </row>
     <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1214,11 +1730,17 @@
       </c>
     </row>
     <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1258,11 +1780,17 @@
       </c>
     </row>
     <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1301,12 +1829,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:37">
+    <row r="17" spans="1:37">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1330,12 +1864,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:37">
+    <row r="18" spans="1:37">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1362,6 +1902,3237 @@
         <v>1</v>
       </c>
       <c r="AK18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>1</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <v>1</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+      <c r="AC43">
+        <v>1</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <v>1</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+      <c r="AI51">
+        <v>1</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>146</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <v>1</v>
+      </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AI52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>1</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>1</v>
+      </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" t="s">
+        <v>161</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+      <c r="AC59">
+        <v>1</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="AB61">
+        <v>1</v>
+      </c>
+      <c r="AC61">
+        <v>1</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <v>1</v>
+      </c>
+      <c r="AC62">
+        <v>1</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="AC63">
+        <v>1</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AI64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" t="s">
+        <v>173</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AF65">
+        <v>1</v>
+      </c>
+      <c r="AH65">
+        <v>1</v>
+      </c>
+      <c r="AI65">
+        <v>1</v>
+      </c>
+      <c r="AJ65">
+        <v>1</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" t="s">
+        <v>175</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AB67">
+        <v>1</v>
+      </c>
+      <c r="AC67">
+        <v>1</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>1</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" t="s">
+        <v>179</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AI68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <v>1</v>
+      </c>
+      <c r="AC69">
+        <v>1</v>
+      </c>
+      <c r="AD69">
+        <v>1</v>
+      </c>
+      <c r="AI69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" t="s">
+        <v>183</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AI70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" t="s">
+        <v>185</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
+      </c>
+      <c r="AC72">
+        <v>1</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AI72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" t="s">
+        <v>189</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="AC73">
+        <v>1</v>
+      </c>
+      <c r="AI73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" t="s">
+        <v>191</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" t="s">
+        <v>194</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="AB75">
+        <v>1</v>
+      </c>
+      <c r="AC75">
+        <v>1</v>
+      </c>
+      <c r="AD75">
+        <v>1</v>
+      </c>
+      <c r="AF75">
+        <v>1</v>
+      </c>
+      <c r="AI75">
+        <v>1</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
+        <v>1</v>
+      </c>
+      <c r="AD76">
+        <v>1</v>
+      </c>
+      <c r="AI76">
+        <v>1</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" t="s">
+        <v>198</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>1</v>
+      </c>
+      <c r="AI77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" t="s">
+        <v>200</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AC78">
+        <v>1</v>
+      </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
+      <c r="AF78">
+        <v>1</v>
+      </c>
+      <c r="AI78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" t="s">
+        <v>202</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
+      <c r="AD79">
+        <v>1</v>
+      </c>
+      <c r="AI79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AC80">
+        <v>1</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
+      <c r="AF80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" t="s">
+        <v>206</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
+        <v>1</v>
+      </c>
+      <c r="AD81">
+        <v>1</v>
+      </c>
+      <c r="AI81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" t="s">
+        <v>208</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
+        <v>1</v>
+      </c>
+      <c r="AC82">
+        <v>1</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AF82">
+        <v>1</v>
+      </c>
+      <c r="AH82">
+        <v>1</v>
+      </c>
+      <c r="AI82">
+        <v>1</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D83" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AI83">
+        <v>1</v>
+      </c>
+      <c r="AK83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" t="s">
+        <v>212</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AC84">
+        <v>1</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AI84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" t="s">
+        <v>214</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="AB85">
+        <v>1</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="AD85">
+        <v>1</v>
+      </c>
+      <c r="AH85">
+        <v>1</v>
+      </c>
+      <c r="AI85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" t="s">
+        <v>215</v>
+      </c>
+      <c r="D86" t="s">
+        <v>216</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AB86">
+        <v>1</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AD86">
+        <v>1</v>
+      </c>
+      <c r="AI86">
+        <v>1</v>
+      </c>
+      <c r="AJ86">
+        <v>1</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" t="s">
+        <v>217</v>
+      </c>
+      <c r="D87" t="s">
+        <v>218</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="AB87">
+        <v>1</v>
+      </c>
+      <c r="AC87">
+        <v>1</v>
+      </c>
+      <c r="AI87">
         <v>1</v>
       </c>
     </row>
